--- a/week-2/Exercises/2-3-B-checking-data-quality/data-quality-demo.xlsx
+++ b/week-2/Exercises/2-3-B-checking-data-quality/data-quality-demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="3" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1073,14 +1073,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1385,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1492,19 +1492,19 @@
       </c>
       <c r="F2" s="1">
         <f ca="1">VLOOKUP($A2,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">IFERROR(VLOOKUP($A2,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H2" s="7">
         <f ca="1">IFERROR(E2*G2,0)</f>
-        <v>1.79</v>
+        <v>5.37</v>
       </c>
       <c r="I2" s="4">
         <f ca="1">D2+H2</f>
-        <v>1001.79</v>
+        <v>1005.37</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="M4" s="4">
         <f ca="1">SUM(H2:H147)</f>
-        <v>1229.4500000000003</v>
+        <v>1197.9100000000003</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1599,26 +1599,26 @@
       </c>
       <c r="F5" s="1">
         <f ca="1">VLOOKUP($A5,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G5" s="1">
         <f ca="1">IFERROR(VLOOKUP($A5,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>14.729999999999999</v>
+        <v>4.91</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1314.73</v>
+        <v>1304.9100000000001</v>
       </c>
       <c r="L5" t="s">
         <v>312</v>
       </c>
       <c r="M5" s="4">
         <f ca="1">M4*0.02</f>
-        <v>24.589000000000006</v>
+        <v>23.958200000000005</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1639,19 +1639,19 @@
       </c>
       <c r="F6" s="1">
         <f ca="1">VLOOKUP($A6,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G6" s="1">
         <f ca="1">IFERROR(VLOOKUP($A6,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1800.5</v>
+        <v>1801.5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1705,19 +1705,19 @@
       </c>
       <c r="F8" s="1">
         <f ca="1">VLOOKUP($A8,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G8" s="1">
         <f ca="1">IFERROR(VLOOKUP($A8,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.5</v>
+        <v>6.3</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1710.5</v>
+        <v>1706.3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="F9" s="1">
         <f ca="1">VLOOKUP($A9,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G9" s="1">
         <f ca="1">IFERROR(VLOOKUP($A9,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5500000000000007</v>
+        <v>4.53</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1107.55</v>
+        <v>1104.53</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1969,19 +1969,19 @@
       </c>
       <c r="F16" s="1">
         <f ca="1">VLOOKUP($A16,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G16" s="1">
         <f ca="1">IFERROR(VLOOKUP($A16,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8500000000000005</v>
+        <v>2.9099999999999997</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1604.85</v>
+        <v>1602.91</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2002,19 +2002,19 @@
       </c>
       <c r="F17" s="1">
         <f ca="1">VLOOKUP($A17,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G17" s="1">
         <f ca="1">IFERROR(VLOOKUP($A17,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.81</v>
+        <v>2.27</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1906.81</v>
+        <v>1902.27</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2035,19 +2035,19 @@
       </c>
       <c r="F18" s="1">
         <f ca="1">VLOOKUP($A18,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G18" s="1">
         <f ca="1">IFERROR(VLOOKUP($A18,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.45</v>
+        <v>10.35</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1203.45</v>
+        <v>1210.3499999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2068,19 +2068,19 @@
       </c>
       <c r="F19" s="1">
         <f ca="1">VLOOKUP($A19,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G19" s="1">
         <f ca="1">IFERROR(VLOOKUP($A19,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.92</v>
+        <v>14.76</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1604.92</v>
+        <v>1614.76</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2101,19 +2101,19 @@
       </c>
       <c r="F20" s="1">
         <f ca="1">VLOOKUP($A20,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G20" s="1">
         <f ca="1">IFERROR(VLOOKUP($A20,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.77</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1603.77</v>
+        <v>1618.85</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2134,19 +2134,19 @@
       </c>
       <c r="F21" s="1">
         <f ca="1">VLOOKUP($A21,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G21" s="1">
         <f ca="1">IFERROR(VLOOKUP($A21,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.36</v>
+        <v>7.08</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1002.36</v>
+        <v>1007.08</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2200,19 +2200,19 @@
       </c>
       <c r="F23" s="1">
         <f ca="1">VLOOKUP($A23,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G23" s="1">
         <f ca="1">IFERROR(VLOOKUP($A23,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.65</v>
+        <v>18.25</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1503.65</v>
+        <v>1518.25</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2233,19 +2233,19 @@
       </c>
       <c r="F24" s="1">
         <f ca="1">VLOOKUP($A24,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G24" s="1">
         <f ca="1">IFERROR(VLOOKUP($A24,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.43</v>
+        <v>2.81</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1708.43</v>
+        <v>1702.81</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2299,19 +2299,19 @@
       </c>
       <c r="F26" s="1">
         <f ca="1">VLOOKUP($A26,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G26" s="1">
         <f ca="1">IFERROR(VLOOKUP($A26,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.67</v>
+        <v>9.4500000000000011</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1805.67</v>
+        <v>1809.45</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="F28" s="1">
         <f ca="1">VLOOKUP($A28,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G28" s="1">
         <f ca="1">IFERROR(VLOOKUP($A28,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.66</v>
+        <v>13.3</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1902.66</v>
+        <v>1913.3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2398,19 +2398,19 @@
       </c>
       <c r="F29" s="1">
         <f ca="1">VLOOKUP($A29,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G29" s="1">
         <f ca="1">IFERROR(VLOOKUP($A29,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.68</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1003.68</v>
+        <v>1018.4</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2431,19 +2431,19 @@
       </c>
       <c r="F30" s="1">
         <f ca="1">VLOOKUP($A30,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G30" s="1">
         <f ca="1">IFERROR(VLOOKUP($A30,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.25</v>
+        <v>3.15</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1105.25</v>
+        <v>1103.1500000000001</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2464,19 +2464,19 @@
       </c>
       <c r="F31" s="1">
         <f ca="1">VLOOKUP($A31,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G31" s="1">
         <f ca="1">IFERROR(VLOOKUP($A31,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>14.85</v>
+        <v>4.95</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1514.85</v>
+        <v>1504.95</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2497,19 +2497,19 @@
       </c>
       <c r="F32" s="1">
         <f ca="1">VLOOKUP($A32,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G32" s="1">
         <f ca="1">IFERROR(VLOOKUP($A32,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.16</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1311.16</v>
+        <v>1318.6</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2629,19 +2629,19 @@
       </c>
       <c r="F36" s="1">
         <f ca="1">VLOOKUP($A36,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G36" s="1">
         <f ca="1">IFERROR(VLOOKUP($A36,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>14.8</v>
+        <v>8.879999999999999</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1014.8</v>
+        <v>1008.88</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2695,19 +2695,19 @@
       </c>
       <c r="F38" s="1">
         <f ca="1">VLOOKUP($A38,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G38" s="1">
         <f ca="1">IFERROR(VLOOKUP($A38,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>18.5</v>
+        <v>3.7</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1518.5</v>
+        <v>1503.7</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2728,19 +2728,19 @@
       </c>
       <c r="F39" s="1">
         <f ca="1">VLOOKUP($A39,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G39" s="1">
         <f ca="1">IFERROR(VLOOKUP($A39,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
+        <v>2.7</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1008.1</v>
+        <v>1002.7</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2761,19 +2761,19 @@
       </c>
       <c r="F40" s="1">
         <f ca="1">VLOOKUP($A40,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G40" s="1">
         <f ca="1">IFERROR(VLOOKUP($A40,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>13.9</v>
+        <v>8.34</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1713.9</v>
+        <v>1708.34</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2827,19 +2827,19 @@
       </c>
       <c r="F42" s="1">
         <f ca="1">VLOOKUP($A42,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G42" s="1">
         <f ca="1">IFERROR(VLOOKUP($A42,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>23.700000000000003</v>
+        <v>14.219999999999999</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1023.7</v>
+        <v>1014.22</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2860,19 +2860,19 @@
       </c>
       <c r="F43" s="1">
         <f ca="1">VLOOKUP($A43,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G43" s="1">
         <f ca="1">IFERROR(VLOOKUP($A43,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.43</v>
+        <v>7.15</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1101.43</v>
+        <v>1107.1500000000001</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2959,19 +2959,19 @@
       </c>
       <c r="F46" s="1">
         <f ca="1">VLOOKUP($A46,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G46" s="1">
         <f ca="1">IFERROR(VLOOKUP($A46,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0299999999999994</v>
+        <v>15.05</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1009.03</v>
+        <v>1015.05</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -3025,19 +3025,19 @@
       </c>
       <c r="F48" s="1">
         <f ca="1">VLOOKUP($A48,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G48" s="1">
         <f ca="1">IFERROR(VLOOKUP($A48,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2400000000000002</v>
+        <v>6.72</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1102.24</v>
+        <v>1106.72</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -3058,19 +3058,19 @@
       </c>
       <c r="F49" s="1">
         <f ca="1">VLOOKUP($A49,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G49" s="1">
         <f ca="1">IFERROR(VLOOKUP($A49,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.03</v>
+        <v>20.150000000000002</v>
       </c>
       <c r="I49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1304.03</v>
+        <v>1320.15</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -3091,19 +3091,19 @@
       </c>
       <c r="F50" s="1">
         <f ca="1">VLOOKUP($A50,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G50" s="1">
         <f ca="1">IFERROR(VLOOKUP($A50,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8999999999999995</v>
+        <v>11.5</v>
       </c>
       <c r="I50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1406.9</v>
+        <v>1411.5</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -3124,19 +3124,19 @@
       </c>
       <c r="F51" s="1">
         <f ca="1">VLOOKUP($A51,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G51" s="1">
         <f ca="1">IFERROR(VLOOKUP($A51,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6500000000000004</v>
+        <v>2.79</v>
       </c>
       <c r="I51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1804.65</v>
+        <v>1802.79</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -3157,19 +3157,19 @@
       </c>
       <c r="F52" s="1">
         <f ca="1">VLOOKUP($A52,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G52" s="1">
         <f ca="1">IFERROR(VLOOKUP($A52,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.81</v>
+        <v>11.43</v>
       </c>
       <c r="I52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1103.81</v>
+        <v>1111.43</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -3190,19 +3190,19 @@
       </c>
       <c r="F53" s="1">
         <f ca="1">VLOOKUP($A53,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G53" s="1">
         <f ca="1">IFERROR(VLOOKUP($A53,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H53" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.17</v>
+        <v>6.95</v>
       </c>
       <c r="I53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1704.17</v>
+        <v>1706.95</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -3223,19 +3223,19 @@
       </c>
       <c r="F54" s="1">
         <f ca="1">VLOOKUP($A54,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G54" s="1">
         <f ca="1">IFERROR(VLOOKUP($A54,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H54" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6199999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="I54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1601.62</v>
+        <v>1600.54</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -3289,19 +3289,19 @@
       </c>
       <c r="F56" s="1">
         <f ca="1">VLOOKUP($A56,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G56" s="1">
         <f ca="1">IFERROR(VLOOKUP($A56,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H56" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1320</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -3322,19 +3322,19 @@
       </c>
       <c r="F57" s="1">
         <f ca="1">VLOOKUP($A57,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G57" s="1">
         <f ca="1">IFERROR(VLOOKUP($A57,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H57" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.22</v>
+        <v>3.6599999999999997</v>
       </c>
       <c r="I57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1501.22</v>
+        <v>1503.66</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -3355,19 +3355,19 @@
       </c>
       <c r="F58" s="1">
         <f ca="1">VLOOKUP($A58,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G58" s="1">
         <f ca="1">IFERROR(VLOOKUP($A58,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H58" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0500000000000003</v>
+        <v>0.61</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1403.05</v>
+        <v>1400.61</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -3388,19 +3388,19 @@
       </c>
       <c r="F59" s="1">
         <f ca="1">VLOOKUP($A59,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G59" s="1">
         <f ca="1">IFERROR(VLOOKUP($A59,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H59" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.66</v>
+        <v>7.9799999999999995</v>
       </c>
       <c r="I59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1902.66</v>
+        <v>1907.98</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -3454,19 +3454,19 @@
       </c>
       <c r="F61" s="1">
         <f ca="1">VLOOKUP($A61,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G61" s="1">
         <f ca="1">IFERROR(VLOOKUP($A61,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H61" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.34</v>
+        <v>2.7800000000000002</v>
       </c>
       <c r="I61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1908.34</v>
+        <v>1902.78</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -3520,19 +3520,19 @@
       </c>
       <c r="F63" s="1">
         <f ca="1">VLOOKUP($A63,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G63" s="1">
         <f ca="1">IFERROR(VLOOKUP($A63,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H63" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1000000000000005</v>
+        <v>1.42</v>
       </c>
       <c r="I63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1607.1</v>
+        <v>1601.42</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -3553,19 +3553,19 @@
       </c>
       <c r="F64" s="1">
         <f ca="1">VLOOKUP($A64,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G64" s="1">
         <f ca="1">IFERROR(VLOOKUP($A64,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H64" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.68</v>
+        <v>11.04</v>
       </c>
       <c r="I64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1903.68</v>
+        <v>1911.04</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -3619,19 +3619,19 @@
       </c>
       <c r="F66" s="1">
         <f ca="1">VLOOKUP($A66,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G66" s="1">
         <f ca="1">IFERROR(VLOOKUP($A66,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H66" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -3652,19 +3652,19 @@
       </c>
       <c r="F67" s="1">
         <f ca="1">VLOOKUP($A67,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G67" s="1">
         <f ca="1">IFERROR(VLOOKUP($A67,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H67" s="7">
         <f t="shared" ref="H67:H130" ca="1" si="2">IFERROR(E67*G67,0)</f>
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="I67" s="4">
         <f t="shared" ref="I67:I130" ca="1" si="3">D67+H67</f>
-        <v>1907.5</v>
+        <v>1901.5</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -3685,19 +3685,19 @@
       </c>
       <c r="F68" s="1">
         <f ca="1">VLOOKUP($A68,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G68" s="1">
         <f ca="1">IFERROR(VLOOKUP($A68,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H68" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.12</v>
+        <v>9.36</v>
       </c>
       <c r="I68" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1803.12</v>
+        <v>1809.36</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -3749,19 +3749,19 @@
       </c>
       <c r="F70" s="1">
         <f ca="1">VLOOKUP($A70,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G70" s="1">
         <f ca="1">IFERROR(VLOOKUP($A70,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H70" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>17.400000000000002</v>
+        <v>3.48</v>
       </c>
       <c r="I70" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1817.4</v>
+        <v>1803.48</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="F71" s="1">
         <f ca="1">VLOOKUP($A71,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G71" s="1">
         <f ca="1">IFERROR(VLOOKUP($A71,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H71" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.93</v>
+        <v>11.79</v>
       </c>
       <c r="I71" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1003.93</v>
+        <v>1011.79</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -3848,19 +3848,19 @@
       </c>
       <c r="F73" s="1">
         <f ca="1">VLOOKUP($A73,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G73" s="1">
         <f ca="1">IFERROR(VLOOKUP($A73,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H73" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.12</v>
+        <v>12.36</v>
       </c>
       <c r="I73" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1804.12</v>
+        <v>1812.36</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -3914,19 +3914,19 @@
       </c>
       <c r="F75" s="1">
         <f ca="1">VLOOKUP($A75,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G75" s="1">
         <f ca="1">IFERROR(VLOOKUP($A75,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H75" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>22.650000000000002</v>
+        <v>4.53</v>
       </c>
       <c r="I75" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1422.65</v>
+        <v>1404.53</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -3947,19 +3947,19 @@
       </c>
       <c r="F76" s="1">
         <f ca="1">VLOOKUP($A76,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G76" s="1">
         <f ca="1">IFERROR(VLOOKUP($A76,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H76" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>14.600000000000001</v>
+        <v>2.92</v>
       </c>
       <c r="I76" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1114.5999999999999</v>
+        <v>1102.92</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -3980,19 +3980,19 @@
       </c>
       <c r="F77" s="1">
         <f ca="1">VLOOKUP($A77,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G77" s="1">
         <f ca="1">IFERROR(VLOOKUP($A77,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H77" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.81</v>
+        <v>5.43</v>
       </c>
       <c r="I77" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1001.81</v>
+        <v>1005.43</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -4013,19 +4013,19 @@
       </c>
       <c r="F78" s="1">
         <f ca="1">VLOOKUP($A78,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G78" s="1">
         <f ca="1">IFERROR(VLOOKUP($A78,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H78" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.22</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I78" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1503.22</v>
+        <v>1516.1</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -4046,19 +4046,19 @@
       </c>
       <c r="F79" s="1">
         <f ca="1">VLOOKUP($A79,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G79" s="1">
         <f ca="1">IFERROR(VLOOKUP($A79,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H79" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5</v>
+        <v>22.5</v>
       </c>
       <c r="I79" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1004.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -4112,19 +4112,19 @@
       </c>
       <c r="F81" s="1">
         <f ca="1">VLOOKUP($A81,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G81" s="1">
         <f ca="1">IFERROR(VLOOKUP($A81,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H81" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5500000000000007</v>
+        <v>1.51</v>
       </c>
       <c r="I81" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1907.55</v>
+        <v>1901.51</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -4178,19 +4178,19 @@
       </c>
       <c r="F83" s="1">
         <f ca="1">VLOOKUP($A83,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G83" s="1">
         <f ca="1">IFERROR(VLOOKUP($A83,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H83" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>14.600000000000001</v>
+        <v>2.92</v>
       </c>
       <c r="I83" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1014.6</v>
+        <v>1002.92</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -4244,19 +4244,19 @@
       </c>
       <c r="F85" s="1">
         <f ca="1">VLOOKUP($A85,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G85" s="1">
         <f ca="1">IFERROR(VLOOKUP($A85,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H85" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7700000000000005</v>
+        <v>23.85</v>
       </c>
       <c r="I85" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1504.77</v>
+        <v>1523.85</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -4310,19 +4310,19 @@
       </c>
       <c r="F87" s="1">
         <f ca="1">VLOOKUP($A87,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G87" s="1">
         <f ca="1">IFERROR(VLOOKUP($A87,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H87" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>9.75</v>
+        <v>16.25</v>
       </c>
       <c r="I87" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1009.75</v>
+        <v>1016.25</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -4343,19 +4343,19 @@
       </c>
       <c r="F88" s="1">
         <f ca="1">VLOOKUP($A88,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G88" s="1">
         <f ca="1">IFERROR(VLOOKUP($A88,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H88" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>23.75</v>
+        <v>4.75</v>
       </c>
       <c r="I88" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1923.75</v>
+        <v>1904.75</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -4376,19 +4376,19 @@
       </c>
       <c r="F89" s="1">
         <f ca="1">VLOOKUP($A89,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G89" s="1">
         <f ca="1">IFERROR(VLOOKUP($A89,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H89" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>9.15</v>
+        <v>3.0500000000000003</v>
       </c>
       <c r="I89" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1809.15</v>
+        <v>1803.05</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -4442,19 +4442,19 @@
       </c>
       <c r="F91" s="1">
         <f ca="1">VLOOKUP($A91,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G91" s="1">
         <f ca="1">IFERROR(VLOOKUP($A91,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H91" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.13</v>
+        <v>9.3899999999999988</v>
       </c>
       <c r="I91" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1103.1300000000001</v>
+        <v>1109.3900000000001</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -4475,19 +4475,19 @@
       </c>
       <c r="F92" s="1">
         <f ca="1">VLOOKUP($A92,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G92" s="1">
         <f ca="1">IFERROR(VLOOKUP($A92,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H92" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.84</v>
+        <v>11.52</v>
       </c>
       <c r="I92" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1103.8399999999999</v>
+        <v>1111.52</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -4508,19 +4508,19 @@
       </c>
       <c r="F93" s="1">
         <f ca="1">VLOOKUP($A93,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G93" s="1">
         <f ca="1">IFERROR(VLOOKUP($A93,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H93" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.54</v>
+        <v>1.18</v>
       </c>
       <c r="I93" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1203.54</v>
+        <v>1201.18</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -4574,19 +4574,19 @@
       </c>
       <c r="F95" s="1">
         <f ca="1">VLOOKUP($A95,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G95" s="1">
         <f ca="1">IFERROR(VLOOKUP($A95,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H95" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5499999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="I95" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1602.55</v>
+        <v>1600.85</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -4607,19 +4607,19 @@
       </c>
       <c r="F96" s="1">
         <f ca="1">VLOOKUP($A96,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G96" s="1">
         <f ca="1">IFERROR(VLOOKUP($A96,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H96" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>18.650000000000002</v>
+        <v>11.19</v>
       </c>
       <c r="I96" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1818.65</v>
+        <v>1811.19</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -4772,19 +4772,19 @@
       </c>
       <c r="F101" s="1">
         <f ca="1">VLOOKUP($A101,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G101" s="1">
         <f ca="1">IFERROR(VLOOKUP($A101,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H101" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.59</v>
+        <v>13.77</v>
       </c>
       <c r="I101" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1404.59</v>
+        <v>1413.77</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -4805,19 +4805,19 @@
       </c>
       <c r="F102" s="1">
         <f ca="1">VLOOKUP($A102,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G102" s="1">
         <f ca="1">IFERROR(VLOOKUP($A102,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H102" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>11.9</v>
+        <v>2.38</v>
       </c>
       <c r="I102" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1411.9</v>
+        <v>1402.38</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -4871,19 +4871,19 @@
       </c>
       <c r="F104" s="1">
         <f ca="1">VLOOKUP($A104,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G104" s="1">
         <f ca="1">IFERROR(VLOOKUP($A104,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H104" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>20.100000000000001</v>
+        <v>12.059999999999999</v>
       </c>
       <c r="I104" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1920.1</v>
+        <v>1912.06</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -4970,19 +4970,19 @@
       </c>
       <c r="F107" s="1">
         <f ca="1">VLOOKUP($A107,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G107" s="1">
         <f ca="1">IFERROR(VLOOKUP($A107,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H107" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>11.4</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="I107" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1211.4000000000001</v>
+        <v>1203.8</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -5003,19 +5003,19 @@
       </c>
       <c r="F108" s="1">
         <f ca="1">VLOOKUP($A108,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G108" s="1">
         <f ca="1">IFERROR(VLOOKUP($A108,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H108" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I108" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1409</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -5036,19 +5036,19 @@
       </c>
       <c r="F109" s="1">
         <f ca="1">VLOOKUP($A109,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G109" s="1">
         <f ca="1">IFERROR(VLOOKUP($A109,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H109" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2099999999999991</v>
+        <v>15.350000000000001</v>
       </c>
       <c r="I109" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1609.21</v>
+        <v>1615.35</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -5069,19 +5069,19 @@
       </c>
       <c r="F110" s="1">
         <f ca="1">VLOOKUP($A110,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G110" s="1">
         <f ca="1">IFERROR(VLOOKUP($A110,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H110" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>11.4</v>
       </c>
       <c r="I110" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1019</v>
+        <v>1011.4</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -5102,19 +5102,19 @@
       </c>
       <c r="F111" s="1">
         <f ca="1">VLOOKUP($A111,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G111" s="1">
         <f ca="1">IFERROR(VLOOKUP($A111,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H111" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>21.150000000000002</v>
+        <v>12.69</v>
       </c>
       <c r="I111" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1521.15</v>
+        <v>1512.69</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -5135,19 +5135,19 @@
       </c>
       <c r="F112" s="1">
         <f ca="1">VLOOKUP($A112,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G112" s="1">
         <f ca="1">IFERROR(VLOOKUP($A112,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H112" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1900000000000004</v>
+        <v>20.950000000000003</v>
       </c>
       <c r="I112" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1204.19</v>
+        <v>1220.95</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -5168,19 +5168,19 @@
       </c>
       <c r="F113" s="1">
         <f ca="1">VLOOKUP($A113,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G113" s="1">
         <f ca="1">IFERROR(VLOOKUP($A113,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H113" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>18.7</v>
+        <v>11.219999999999999</v>
       </c>
       <c r="I113" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1018.7</v>
+        <v>1011.22</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -5201,19 +5201,19 @@
       </c>
       <c r="F114" s="1">
         <f ca="1">VLOOKUP($A114,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G114" s="1">
         <f ca="1">IFERROR(VLOOKUP($A114,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H114" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>14.4</v>
+        <v>2.88</v>
       </c>
       <c r="I114" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1814.4</v>
+        <v>1802.88</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -5267,19 +5267,19 @@
       </c>
       <c r="F116" s="1">
         <f ca="1">VLOOKUP($A116,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G116" s="1">
         <f ca="1">IFERROR(VLOOKUP($A116,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H116" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I116" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1720</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -5333,19 +5333,19 @@
       </c>
       <c r="F118" s="1">
         <f ca="1">VLOOKUP($A118,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G118" s="1">
         <f ca="1">IFERROR(VLOOKUP($A118,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H118" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9399999999999995</v>
+        <v>1.98</v>
       </c>
       <c r="I118" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1405.94</v>
+        <v>1401.98</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -5366,19 +5366,19 @@
       </c>
       <c r="F119" s="1">
         <f ca="1">VLOOKUP($A119,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G119" s="1">
         <f ca="1">IFERROR(VLOOKUP($A119,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H119" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83000000000000007</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="I119" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1900.83</v>
+        <v>1902.49</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -5432,19 +5432,19 @@
       </c>
       <c r="F121" s="1">
         <f ca="1">VLOOKUP($A121,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G121" s="1">
         <f ca="1">IFERROR(VLOOKUP($A121,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H121" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>11.639999999999999</v>
+        <v>19.400000000000002</v>
       </c>
       <c r="I121" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1611.64</v>
+        <v>1619.4</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -5465,19 +5465,19 @@
       </c>
       <c r="F122" s="1">
         <f ca="1">VLOOKUP($A122,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G122" s="1">
         <f ca="1">IFERROR(VLOOKUP($A122,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H122" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.29</v>
+        <v>3.8699999999999997</v>
       </c>
       <c r="I122" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1201.29</v>
+        <v>1203.8699999999999</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -5531,19 +5531,19 @@
       </c>
       <c r="F124" s="1">
         <f ca="1">VLOOKUP($A124,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G124" s="1">
         <f ca="1">IFERROR(VLOOKUP($A124,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H124" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3599999999999994</v>
+        <v>2.12</v>
       </c>
       <c r="I124" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1206.3599999999999</v>
+        <v>1202.1199999999999</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -5564,19 +5564,19 @@
       </c>
       <c r="F125" s="1">
         <f ca="1">VLOOKUP($A125,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G125" s="1">
         <f ca="1">IFERROR(VLOOKUP($A125,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H125" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>23.700000000000003</v>
+        <v>4.74</v>
       </c>
       <c r="I125" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1923.7</v>
+        <v>1904.74</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -5597,19 +5597,19 @@
       </c>
       <c r="F126" s="1">
         <f ca="1">VLOOKUP($A126,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G126" s="1">
         <f ca="1">IFERROR(VLOOKUP($A126,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H126" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.26</v>
+        <v>12.78</v>
       </c>
       <c r="I126" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1504.26</v>
+        <v>1512.78</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="F127" s="1">
         <f ca="1">VLOOKUP($A127,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G127" s="1">
         <f ca="1">IFERROR(VLOOKUP($A127,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H127" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.95</v>
+        <v>19.75</v>
       </c>
       <c r="I127" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1503.95</v>
+        <v>1519.75</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -5663,19 +5663,19 @@
       </c>
       <c r="F128" s="1">
         <f ca="1">VLOOKUP($A128,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G128" s="1">
         <f ca="1">IFERROR(VLOOKUP($A128,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H128" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>11.219999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="I128" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1211.22</v>
+        <v>1218.7</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -5762,19 +5762,19 @@
       </c>
       <c r="F131" s="1">
         <f ca="1">VLOOKUP($A131,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G131" s="1">
         <f ca="1">IFERROR(VLOOKUP($A131,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H131" s="7">
         <f t="shared" ref="H131:H151" ca="1" si="4">IFERROR(E131*G131,0)</f>
-        <v>12</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="I131" s="4">
         <f t="shared" ref="I131:I151" ca="1" si="5">D131+H131</f>
-        <v>1812</v>
+        <v>1807.2</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -5795,19 +5795,19 @@
       </c>
       <c r="F132" s="1">
         <f ca="1">VLOOKUP($A132,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G132" s="1">
         <f ca="1">IFERROR(VLOOKUP($A132,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H132" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>13.55</v>
+        <v>2.71</v>
       </c>
       <c r="I132" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1913.55</v>
+        <v>1902.71</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -5828,19 +5828,19 @@
       </c>
       <c r="F133" s="1">
         <f ca="1">VLOOKUP($A133,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G133" s="1">
         <f ca="1">IFERROR(VLOOKUP($A133,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H133" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>12.209999999999999</v>
+        <v>4.07</v>
       </c>
       <c r="I133" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1212.21</v>
+        <v>1204.07</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -5861,19 +5861,19 @@
       </c>
       <c r="F134" s="1">
         <f ca="1">VLOOKUP($A134,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G134" s="1">
         <f ca="1">IFERROR(VLOOKUP($A134,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H134" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>2.56</v>
+        <v>7.68</v>
       </c>
       <c r="I134" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1702.56</v>
+        <v>1707.68</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -5960,19 +5960,19 @@
       </c>
       <c r="F137" s="1">
         <f ca="1">VLOOKUP($A137,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G137" s="1">
         <f ca="1">IFERROR(VLOOKUP($A137,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H137" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>22.1</v>
+        <v>4.42</v>
       </c>
       <c r="I137" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1322.1</v>
+        <v>1304.42</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -5993,19 +5993,19 @@
       </c>
       <c r="F138" s="1">
         <f ca="1">VLOOKUP($A138,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G138" s="1">
         <f ca="1">IFERROR(VLOOKUP($A138,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H138" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>19.150000000000002</v>
+        <v>11.49</v>
       </c>
       <c r="I138" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1119.1500000000001</v>
+        <v>1111.49</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -6092,19 +6092,19 @@
       </c>
       <c r="F141" s="1">
         <f ca="1">VLOOKUP($A141,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G141" s="1">
         <f ca="1">IFERROR(VLOOKUP($A141,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H141" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4499999999999993</v>
+        <v>15.75</v>
       </c>
       <c r="I141" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1109.45</v>
+        <v>1115.75</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -6158,19 +6158,19 @@
       </c>
       <c r="F143" s="1">
         <f ca="1">VLOOKUP($A143,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G143" s="1">
         <f ca="1">IFERROR(VLOOKUP($A143,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H143" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
       <c r="I143" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1204.9000000000001</v>
+        <v>1202.94</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -6191,19 +6191,19 @@
       </c>
       <c r="F144" s="1">
         <f ca="1">VLOOKUP($A144,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G144" s="1">
         <f ca="1">IFERROR(VLOOKUP($A144,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H144" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>4.46</v>
+        <v>13.379999999999999</v>
       </c>
       <c r="I144" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1004.46</v>
+        <v>1013.38</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -6224,19 +6224,19 @@
       </c>
       <c r="F145" s="1">
         <f ca="1">VLOOKUP($A145,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G145" s="1">
         <f ca="1">IFERROR(VLOOKUP($A145,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H145" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>9.69</v>
+        <v>16.150000000000002</v>
       </c>
       <c r="I145" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1809.69</v>
+        <v>1816.15</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -6290,19 +6290,19 @@
       </c>
       <c r="F147" s="1">
         <f ca="1">VLOOKUP($A147,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G147" s="1">
         <f ca="1">IFERROR(VLOOKUP($A147,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H147" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>2.85</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="I147" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1802.85</v>
+        <v>1800.95</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -6323,19 +6323,19 @@
       </c>
       <c r="F148" s="1">
         <f ca="1">VLOOKUP($A148,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G148" s="1">
         <f ca="1">IFERROR(VLOOKUP($A148,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H148" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>4.33</v>
+        <v>21.650000000000002</v>
       </c>
       <c r="I148" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1804.33</v>
+        <v>1821.65</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -6356,19 +6356,19 @@
       </c>
       <c r="F149" s="1">
         <f ca="1">VLOOKUP($A149,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G149" s="1">
         <f ca="1">IFERROR(VLOOKUP($A149,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H149" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>12.05</v>
+        <v>7.2299999999999995</v>
       </c>
       <c r="I149" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1212.05</v>
+        <v>1207.23</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -6389,19 +6389,19 @@
       </c>
       <c r="F150" s="1">
         <f ca="1">VLOOKUP($A150,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G150" s="1">
         <f ca="1">IFERROR(VLOOKUP($A150,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H150" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="I150" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1112</v>
+        <v>1107.2</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -6422,19 +6422,19 @@
       </c>
       <c r="F151" s="1">
         <f ca="1">VLOOKUP($A151,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G151" s="1">
         <f ca="1">IFERROR(VLOOKUP($A151,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H151" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>9.66</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I151" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1609.66</v>
+        <v>1616.1</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -6526,9 +6526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">CHOOSE(RANDBETWEEN(1,3),0.01,0.03,0.05)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6577,7 +6577,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -6802,7 +6802,7 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="B62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -7099,7 +7099,7 @@
       </c>
       <c r="B63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="B66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="B69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="B71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="B73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="B74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="B75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -7234,7 +7234,7 @@
       </c>
       <c r="B78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="B80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="B85" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="B86" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="B87" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B88" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="B89" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="B90" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="B91" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="B92" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B94" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="B95" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="B97" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="B101" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="B102" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B104" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="B107" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="B108" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B110" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B111" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="B113" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="B115" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="B117" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="B118" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="B119" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="B121" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B125" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B126" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="B127" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="B129" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="B130" s="1">
         <f t="shared" ref="B130:B149" ca="1" si="2">CHOOSE(RANDBETWEEN(1,3),0.01,0.03,0.05)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B131" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B132" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="B134" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="B135" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="B137" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="B139" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="B142" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="B143" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="B146" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="B147" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B148" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">

--- a/week-2/Exercises/2-3-B-checking-data-quality/data-quality-demo.xlsx
+++ b/week-2/Exercises/2-3-B-checking-data-quality/data-quality-demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="checkfigs" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Party_Planning_Fund">Sales!$M$5</definedName>
+    <definedName name="Party_Planning_Fund">Sales!$L$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,42 +29,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>User</author>
-  </authors>
-  <commentList>
-    <comment ref="M5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-2% of total commissions</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="313">
   <si>
     <t>Tomeka</t>
   </si>
@@ -673,9 +639,6 @@
   </si>
   <si>
     <t>Commission</t>
-  </si>
-  <si>
-    <t>Commission - with error check</t>
   </si>
   <si>
     <t>Major</t>
@@ -1016,7 +979,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,19 +993,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1385,35 +1335,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1422,12 +1370,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,14 +1386,13 @@
     <col min="4" max="4" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -1459,22 +1406,19 @@
         <v>201</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H1" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>478952</v>
       </c>
@@ -1492,22 +1436,18 @@
       </c>
       <c r="F2" s="1">
         <f ca="1">VLOOKUP($A2,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G2" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A2,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H2" s="7">
-        <f ca="1">IFERROR(E2*G2,0)</f>
-        <v>5.37</v>
-      </c>
-      <c r="I2" s="4">
-        <f ca="1">D2+H2</f>
-        <v>1005.37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="7">
+        <f ca="1">E2*F2</f>
+        <v>8.9500000000000011</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H33" ca="1" si="0">D2+G2</f>
+        <v>1008.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>875117</v>
       </c>
@@ -1527,21 +1467,17 @@
         <f ca="1">VLOOKUP($A3,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G3" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A3,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H66" ca="1" si="0">IFERROR(E3*G3,0)</f>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G66" ca="1" si="1">E3*F3</f>
         <v>13.049999999999999</v>
       </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I66" ca="1" si="1">D3+H3</f>
+      <c r="H3" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>1613.05</v>
       </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>733604</v>
       </c>
@@ -1559,29 +1495,25 @@
       </c>
       <c r="F4" s="1">
         <f ca="1">VLOOKUP($A4,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G4" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A4,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.63</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1203.6300000000001</v>
-      </c>
-      <c r="L4" t="s">
-        <v>308</v>
-      </c>
-      <c r="M4" s="4">
-        <f ca="1">SUM(H2:H147)</f>
-        <v>1197.9100000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.21</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1201.21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" s="4" t="e">
+        <f ca="1">SUM(G2:G147)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>906076</v>
       </c>
@@ -1599,29 +1531,25 @@
       </c>
       <c r="F5" s="1">
         <f ca="1">VLOOKUP($A5,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G5" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A5,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.91</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1304.9100000000001</v>
-      </c>
-      <c r="L5" t="s">
-        <v>312</v>
-      </c>
-      <c r="M5" s="4">
-        <f ca="1">M4*0.02</f>
-        <v>23.958200000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.729999999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1314.73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>311</v>
+      </c>
+      <c r="L5" s="4" t="e">
+        <f ca="1">L4*0.02</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>898496</v>
       </c>
@@ -1639,22 +1567,18 @@
       </c>
       <c r="F6" s="1">
         <f ca="1">VLOOKUP($A6,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G6" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A6,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1801.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1800.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>138079</v>
       </c>
@@ -1674,20 +1598,16 @@
         <f ca="1">VLOOKUP($A7,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G7" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A7,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G7" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>3.8000000000000003</v>
       </c>
-      <c r="I7" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H7" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>1003.8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>854036</v>
       </c>
@@ -1705,22 +1625,18 @@
       </c>
       <c r="F8" s="1">
         <f ca="1">VLOOKUP($A8,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G8" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A8,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1706.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1710.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>977668</v>
       </c>
@@ -1738,22 +1654,18 @@
       </c>
       <c r="F9" s="1">
         <f ca="1">VLOOKUP($A9,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G9" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A9,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.53</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1104.53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.51</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1101.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>558299</v>
       </c>
@@ -1773,20 +1685,16 @@
         <f ca="1">VLOOKUP($A10,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G10" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A10,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G10" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>2.0099999999999998</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H10" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>1802.01</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>804513</v>
       </c>
@@ -1806,20 +1714,16 @@
         <f ca="1">VLOOKUP($A11,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G11" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A11,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G11" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>20.650000000000002</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H11" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>1220.6500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>593480</v>
       </c>
@@ -1837,22 +1741,18 @@
       </c>
       <c r="F12" s="1">
         <f ca="1">VLOOKUP($A12,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G12" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A12,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.17</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1410.17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.39</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1403.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>327504</v>
       </c>
@@ -1870,22 +1770,18 @@
       </c>
       <c r="F13" s="1">
         <f ca="1">VLOOKUP($A13,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G13" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A13,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.25</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1711.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.75</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>518555</v>
       </c>
@@ -1903,22 +1799,18 @@
       </c>
       <c r="F14" s="1">
         <f ca="1">VLOOKUP($A14,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G14" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A14,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.51</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1609.51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.17</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1603.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>991452</v>
       </c>
@@ -1936,22 +1828,18 @@
       </c>
       <c r="F15" s="1">
         <f ca="1">VLOOKUP($A15,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G15" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A15,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1704.14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.42</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1712.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>357197</v>
       </c>
@@ -1969,22 +1857,18 @@
       </c>
       <c r="F16" s="1">
         <f ca="1">VLOOKUP($A16,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G16" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A16,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9099999999999997</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1602.91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8500000000000005</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1604.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>804783</v>
       </c>
@@ -2002,22 +1886,18 @@
       </c>
       <c r="F17" s="1">
         <f ca="1">VLOOKUP($A17,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G17" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A17,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.27</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1902.27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.81</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1906.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>706870</v>
       </c>
@@ -2037,20 +1917,16 @@
         <f ca="1">VLOOKUP($A18,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G18" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A18,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G18" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>10.35</v>
       </c>
-      <c r="I18" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H18" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>1210.3499999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>884886</v>
       </c>
@@ -2068,22 +1944,18 @@
       </c>
       <c r="F19" s="1">
         <f ca="1">VLOOKUP($A19,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G19" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A19,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H19" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.76</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1614.76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.6</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1624.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>145402</v>
       </c>
@@ -2103,20 +1975,16 @@
         <f ca="1">VLOOKUP($A20,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G20" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A20,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G20" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>18.850000000000001</v>
       </c>
-      <c r="I20" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H20" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>1618.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>430351</v>
       </c>
@@ -2136,20 +2004,16 @@
         <f ca="1">VLOOKUP($A21,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G21" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A21,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G21" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>7.08</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H21" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>1007.08</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>279782</v>
       </c>
@@ -2167,22 +2031,18 @@
       </c>
       <c r="F22" s="1">
         <f ca="1">VLOOKUP($A22,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G22" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A22,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.83</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1507.83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.05</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1513.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>462887</v>
       </c>
@@ -2202,20 +2062,16 @@
         <f ca="1">VLOOKUP($A23,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G23" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A23,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G23" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>18.25</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H23" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>1518.25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>610443</v>
       </c>
@@ -2235,20 +2091,16 @@
         <f ca="1">VLOOKUP($A24,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G24" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A24,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H24" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G24" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>2.81</v>
       </c>
-      <c r="I24" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H24" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>1702.81</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>969050</v>
       </c>
@@ -2266,22 +2118,18 @@
       </c>
       <c r="F25" s="1">
         <f ca="1">VLOOKUP($A25,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G25" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A25,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H25" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.92</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1607.92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1613.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>381970</v>
       </c>
@@ -2301,20 +2149,16 @@
         <f ca="1">VLOOKUP($A26,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G26" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A26,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H26" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G26" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>9.4500000000000011</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H26" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>1809.45</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>453927</v>
       </c>
@@ -2332,22 +2176,18 @@
       </c>
       <c r="F27" s="1">
         <f ca="1">VLOOKUP($A27,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G27" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A27,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H27" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1603.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>904926</v>
       </c>
@@ -2365,22 +2205,18 @@
       </c>
       <c r="F28" s="1">
         <f ca="1">VLOOKUP($A28,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G28" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A28,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H28" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.3</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1913.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.66</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1902.66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>637771</v>
       </c>
@@ -2398,22 +2234,18 @@
       </c>
       <c r="F29" s="1">
         <f ca="1">VLOOKUP($A29,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G29" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A29,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H29" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1018.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.68</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1003.68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>918104</v>
       </c>
@@ -2433,20 +2265,16 @@
         <f ca="1">VLOOKUP($A30,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G30" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A30,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H30" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G30" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>3.15</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H30" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>1103.1500000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>193729</v>
       </c>
@@ -2464,22 +2292,18 @@
       </c>
       <c r="F31" s="1">
         <f ca="1">VLOOKUP($A31,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G31" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A31,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.95</v>
-      </c>
-      <c r="I31" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1504.95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.85</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1514.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>194392</v>
       </c>
@@ -2497,22 +2321,18 @@
       </c>
       <c r="F32" s="1">
         <f ca="1">VLOOKUP($A32,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G32" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A32,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H32" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1318.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.72</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1303.72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>761358</v>
       </c>
@@ -2530,22 +2350,18 @@
       </c>
       <c r="F33" s="1">
         <f ca="1">VLOOKUP($A33,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G33" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A33,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H33" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.27</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1801.27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.3500000000000005</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1806.35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>681372</v>
       </c>
@@ -2565,20 +2381,16 @@
         <f ca="1">VLOOKUP($A34,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G34" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A34,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H34" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G34" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>13.55</v>
       </c>
-      <c r="I34" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H34" s="4">
+        <f t="shared" ref="H34:H65" ca="1" si="2">D34+G34</f>
         <v>1313.55</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>342629</v>
       </c>
@@ -2596,22 +2408,18 @@
       </c>
       <c r="F35" s="1">
         <f ca="1">VLOOKUP($A35,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G35" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A35,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H35" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.52</v>
-      </c>
-      <c r="I35" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1502.52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1504.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>659361</v>
       </c>
@@ -2631,20 +2439,16 @@
         <f ca="1">VLOOKUP($A36,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G36" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A36,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H36" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G36" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>8.879999999999999</v>
       </c>
-      <c r="I36" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H36" s="4">
+        <f t="shared" ca="1" si="2"/>
         <v>1008.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>942942</v>
       </c>
@@ -2662,22 +2466,18 @@
       </c>
       <c r="F37" s="1">
         <f ca="1">VLOOKUP($A37,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G37" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A37,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I37" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>288184</v>
       </c>
@@ -2697,20 +2497,16 @@
         <f ca="1">VLOOKUP($A38,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G38" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A38,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H38" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G38" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>3.7</v>
       </c>
-      <c r="I38" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H38" s="4">
+        <f t="shared" ca="1" si="2"/>
         <v>1503.7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>602314</v>
       </c>
@@ -2730,20 +2526,16 @@
         <f ca="1">VLOOKUP($A39,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G39" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A39,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H39" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G39" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>2.7</v>
       </c>
-      <c r="I39" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H39" s="4">
+        <f t="shared" ca="1" si="2"/>
         <v>1002.7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>504923</v>
       </c>
@@ -2761,22 +2553,18 @@
       </c>
       <c r="F40" s="1">
         <f ca="1">VLOOKUP($A40,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G40" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A40,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H40" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.34</v>
-      </c>
-      <c r="I40" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1708.34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.9</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1713.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>361686</v>
       </c>
@@ -2796,20 +2584,16 @@
         <f ca="1">VLOOKUP($A41,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G41" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A41,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H41" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G41" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="I41" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H41" s="4">
+        <f t="shared" ca="1" si="2"/>
         <v>1201.7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>310632</v>
       </c>
@@ -2829,20 +2613,16 @@
         <f ca="1">VLOOKUP($A42,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G42" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A42,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H42" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G42" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>14.219999999999999</v>
       </c>
-      <c r="I42" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H42" s="4">
+        <f t="shared" ca="1" si="2"/>
         <v>1014.22</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>472831</v>
       </c>
@@ -2860,22 +2640,18 @@
       </c>
       <c r="F43" s="1">
         <f ca="1">VLOOKUP($A43,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G43" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A43,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H43" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.15</v>
-      </c>
-      <c r="I43" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1107.1500000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.29</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1104.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>957586</v>
       </c>
@@ -2893,22 +2669,18 @@
       </c>
       <c r="F44" s="1">
         <f ca="1">VLOOKUP($A44,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G44" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A44,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H44" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.049999999999999</v>
-      </c>
-      <c r="I44" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1010.05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.35</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1003.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>769556</v>
       </c>
@@ -2928,20 +2700,16 @@
         <f>VLOOKUP($A45,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G45" s="1" t="str">
-        <f>IFERROR(VLOOKUP($A45,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>Need the commission</v>
-      </c>
-      <c r="H45" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
+      <c r="G45" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>#N/A</v>
+      </c>
+      <c r="H45" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>220654</v>
       </c>
@@ -2961,20 +2729,16 @@
         <f ca="1">VLOOKUP($A46,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G46" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A46,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H46" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G46" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>15.05</v>
       </c>
-      <c r="I46" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H46" s="4">
+        <f t="shared" ca="1" si="2"/>
         <v>1015.05</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>647263</v>
       </c>
@@ -2992,22 +2756,18 @@
       </c>
       <c r="F47" s="1">
         <f ca="1">VLOOKUP($A47,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G47" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A47,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H47" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.21</v>
-      </c>
-      <c r="I47" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1401.21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.63</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403.63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>297038</v>
       </c>
@@ -3025,22 +2785,18 @@
       </c>
       <c r="F48" s="1">
         <f ca="1">VLOOKUP($A48,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G48" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A48,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H48" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.72</v>
-      </c>
-      <c r="I48" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1106.72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1111.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>312176</v>
       </c>
@@ -3058,22 +2814,18 @@
       </c>
       <c r="F49" s="1">
         <f ca="1">VLOOKUP($A49,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G49" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A49,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H49" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.150000000000002</v>
-      </c>
-      <c r="I49" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1320.15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.09</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1312.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>847627</v>
       </c>
@@ -3093,20 +2845,16 @@
         <f ca="1">VLOOKUP($A50,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G50" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A50,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H50" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G50" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="I50" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H50" s="4">
+        <f t="shared" ca="1" si="2"/>
         <v>1411.5</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>188080</v>
       </c>
@@ -3124,22 +2872,18 @@
       </c>
       <c r="F51" s="1">
         <f ca="1">VLOOKUP($A51,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G51" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A51,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H51" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.79</v>
-      </c>
-      <c r="I51" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1802.79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1800.93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>290071</v>
       </c>
@@ -3157,22 +2901,18 @@
       </c>
       <c r="F52" s="1">
         <f ca="1">VLOOKUP($A52,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G52" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A52,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H52" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.43</v>
-      </c>
-      <c r="I52" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1111.43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.05</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1119.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>756973</v>
       </c>
@@ -3192,20 +2932,16 @@
         <f ca="1">VLOOKUP($A53,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G53" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A53,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H53" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G53" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>6.95</v>
       </c>
-      <c r="I53" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H53" s="4">
+        <f t="shared" ca="1" si="2"/>
         <v>1706.95</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>845781</v>
       </c>
@@ -3223,22 +2959,18 @@
       </c>
       <c r="F54" s="1">
         <f ca="1">VLOOKUP($A54,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G54" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A54,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H54" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="I54" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1600.54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1601.62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>388978</v>
       </c>
@@ -3256,22 +2988,18 @@
       </c>
       <c r="F55" s="1">
         <f ca="1">VLOOKUP($A55,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G55" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A55,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H55" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.74</v>
-      </c>
-      <c r="I55" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1804.74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.9</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1807.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>218212</v>
       </c>
@@ -3289,22 +3017,18 @@
       </c>
       <c r="F56" s="1">
         <f ca="1">VLOOKUP($A56,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G56" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A56,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H56" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I56" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>556060</v>
       </c>
@@ -3322,22 +3046,18 @@
       </c>
       <c r="F57" s="1">
         <f ca="1">VLOOKUP($A57,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G57" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A57,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H57" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.6599999999999997</v>
-      </c>
-      <c r="I57" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1503.66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.22</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1501.22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>798837</v>
       </c>
@@ -3355,22 +3075,18 @@
       </c>
       <c r="F58" s="1">
         <f ca="1">VLOOKUP($A58,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G58" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A58,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H58" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.61</v>
-      </c>
-      <c r="I58" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1400.61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.0500000000000003</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1403.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>572505</v>
       </c>
@@ -3390,20 +3106,16 @@
         <f ca="1">VLOOKUP($A59,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G59" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A59,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H59" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G59" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>7.9799999999999995</v>
       </c>
-      <c r="I59" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H59" s="4">
+        <f t="shared" ca="1" si="2"/>
         <v>1907.98</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>727776</v>
       </c>
@@ -3421,22 +3133,18 @@
       </c>
       <c r="F60" s="1">
         <f ca="1">VLOOKUP($A60,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G60" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A60,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H60" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6899999999999995</v>
-      </c>
-      <c r="I60" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1306.69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.15</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1311.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>289698</v>
       </c>
@@ -3454,22 +3162,18 @@
       </c>
       <c r="F61" s="1">
         <f ca="1">VLOOKUP($A61,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G61" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A61,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H61" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7800000000000002</v>
-      </c>
-      <c r="I61" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1902.78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.34</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1908.34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>871966</v>
       </c>
@@ -3487,22 +3191,18 @@
       </c>
       <c r="F62" s="1">
         <f ca="1">VLOOKUP($A62,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G62" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A62,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H62" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.27</v>
-      </c>
-      <c r="I62" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1902.27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.350000000000001</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1911.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>849764</v>
       </c>
@@ -3522,20 +3222,16 @@
         <f ca="1">VLOOKUP($A63,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G63" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A63,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H63" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G63" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>1.42</v>
       </c>
-      <c r="I63" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H63" s="4">
+        <f t="shared" ca="1" si="2"/>
         <v>1601.42</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>917371</v>
       </c>
@@ -3553,22 +3249,18 @@
       </c>
       <c r="F64" s="1">
         <f ca="1">VLOOKUP($A64,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G64" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A64,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H64" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.04</v>
-      </c>
-      <c r="I64" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1911.04</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="H64" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1918.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>535119</v>
       </c>
@@ -3588,20 +3280,16 @@
         <f ca="1">VLOOKUP($A65,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G65" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A65,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H65" s="7">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G65" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>4.32</v>
       </c>
-      <c r="I65" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H65" s="4">
+        <f t="shared" ca="1" si="2"/>
         <v>1904.32</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>331830</v>
       </c>
@@ -3619,22 +3307,18 @@
       </c>
       <c r="F66" s="1">
         <f ca="1">VLOOKUP($A66,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G66" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A66,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H66" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I66" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G66" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H66" s="4">
+        <f t="shared" ref="H66:H97" ca="1" si="3">D66+G66</f>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>973333</v>
       </c>
@@ -3654,20 +3338,16 @@
         <f ca="1">VLOOKUP($A67,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G67" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A67,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H67" s="7">
-        <f t="shared" ref="H67:H130" ca="1" si="2">IFERROR(E67*G67,0)</f>
+      <c r="G67" s="7">
+        <f t="shared" ref="G67:G130" ca="1" si="4">E67*F67</f>
         <v>1.5</v>
       </c>
-      <c r="I67" s="4">
-        <f t="shared" ref="I67:I130" ca="1" si="3">D67+H67</f>
+      <c r="H67" s="4">
+        <f t="shared" ca="1" si="3"/>
         <v>1901.5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>383157</v>
       </c>
@@ -3687,20 +3367,16 @@
         <f ca="1">VLOOKUP($A68,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G68" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A68,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H68" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G68" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>9.36</v>
       </c>
-      <c r="I68" s="4">
+      <c r="H68" s="4">
         <f t="shared" ca="1" si="3"/>
         <v>1809.36</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>113661</v>
       </c>
@@ -3719,19 +3395,16 @@
       <c r="F69" s="2">
         <v>0.5</v>
       </c>
-      <c r="G69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H69" s="7">
-        <f t="shared" si="2"/>
+      <c r="G69" s="7">
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="I69" s="4">
+      <c r="H69" s="4">
         <f t="shared" si="3"/>
         <v>1674</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>232694</v>
       </c>
@@ -3749,22 +3422,18 @@
       </c>
       <c r="F70" s="1">
         <f ca="1">VLOOKUP($A70,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G70" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A70,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H70" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.48</v>
-      </c>
-      <c r="I70" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G70" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.400000000000002</v>
+      </c>
+      <c r="H70" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1803.48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1817.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>527912</v>
       </c>
@@ -3782,22 +3451,18 @@
       </c>
       <c r="F71" s="1">
         <f ca="1">VLOOKUP($A71,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G71" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A71,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H71" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.79</v>
-      </c>
-      <c r="I71" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G71" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.93</v>
+      </c>
+      <c r="H71" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1011.79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1003.93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>673217</v>
       </c>
@@ -3817,20 +3482,16 @@
         <f ca="1">VLOOKUP($A72,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G72" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A72,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H72" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G72" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>5.7299999999999995</v>
       </c>
-      <c r="I72" s="4">
+      <c r="H72" s="4">
         <f t="shared" ca="1" si="3"/>
         <v>1705.73</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>367073</v>
       </c>
@@ -3850,20 +3511,16 @@
         <f ca="1">VLOOKUP($A73,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G73" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A73,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H73" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G73" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>12.36</v>
       </c>
-      <c r="I73" s="4">
+      <c r="H73" s="4">
         <f t="shared" ca="1" si="3"/>
         <v>1812.36</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>919645</v>
       </c>
@@ -3881,22 +3538,18 @@
       </c>
       <c r="F74" s="1">
         <f ca="1">VLOOKUP($A74,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G74" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A74,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H74" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.43</v>
-      </c>
-      <c r="I74" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G74" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.150000000000002</v>
+      </c>
+      <c r="H74" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1503.43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1517.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>174971</v>
       </c>
@@ -3914,22 +3567,18 @@
       </c>
       <c r="F75" s="1">
         <f ca="1">VLOOKUP($A75,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G75" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A75,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H75" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.53</v>
-      </c>
-      <c r="I75" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.59</v>
+      </c>
+      <c r="H75" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1404.53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1413.59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>186073</v>
       </c>
@@ -3947,22 +3596,18 @@
       </c>
       <c r="F76" s="1">
         <f ca="1">VLOOKUP($A76,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G76" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A76,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H76" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.92</v>
-      </c>
-      <c r="I76" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G76" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.600000000000001</v>
+      </c>
+      <c r="H76" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1102.92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1114.5999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>744573</v>
       </c>
@@ -3980,22 +3625,18 @@
       </c>
       <c r="F77" s="1">
         <f ca="1">VLOOKUP($A77,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G77" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A77,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H77" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.43</v>
-      </c>
-      <c r="I77" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G77" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.81</v>
+      </c>
+      <c r="H77" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1005.43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1001.81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>179951</v>
       </c>
@@ -4013,22 +3654,18 @@
       </c>
       <c r="F78" s="1">
         <f ca="1">VLOOKUP($A78,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G78" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A78,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H78" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="I78" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G78" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.66</v>
+      </c>
+      <c r="H78" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1516.1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1509.66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>205427</v>
       </c>
@@ -4046,22 +3683,18 @@
       </c>
       <c r="F79" s="1">
         <f ca="1">VLOOKUP($A79,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G79" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A79,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H79" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>22.5</v>
-      </c>
-      <c r="I79" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G79" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="H79" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1022.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1004.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>495865</v>
       </c>
@@ -4081,20 +3714,16 @@
         <f ca="1">VLOOKUP($A80,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G80" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A80,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H80" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G80" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>2.38</v>
       </c>
-      <c r="I80" s="4">
+      <c r="H80" s="4">
         <f t="shared" ca="1" si="3"/>
         <v>1702.38</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>467832</v>
       </c>
@@ -4114,20 +3743,16 @@
         <f ca="1">VLOOKUP($A81,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G81" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A81,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H81" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G81" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>1.51</v>
       </c>
-      <c r="I81" s="4">
+      <c r="H81" s="4">
         <f t="shared" ca="1" si="3"/>
         <v>1901.51</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>743702</v>
       </c>
@@ -4147,20 +3772,16 @@
         <f ca="1">VLOOKUP($A82,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G82" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A82,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H82" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G82" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>6.66</v>
       </c>
-      <c r="I82" s="4">
+      <c r="H82" s="4">
         <f t="shared" ca="1" si="3"/>
         <v>1606.66</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>397365</v>
       </c>
@@ -4180,20 +3801,16 @@
         <f ca="1">VLOOKUP($A83,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G83" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A83,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H83" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G83" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>2.92</v>
       </c>
-      <c r="I83" s="4">
+      <c r="H83" s="4">
         <f t="shared" ca="1" si="3"/>
         <v>1002.92</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>959365</v>
       </c>
@@ -4211,22 +3828,18 @@
       </c>
       <c r="F84" s="1">
         <f ca="1">VLOOKUP($A84,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G84" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A84,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H84" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.55</v>
-      </c>
-      <c r="I84" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G84" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.71</v>
+      </c>
+      <c r="H84" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1618.55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1603.71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>963625</v>
       </c>
@@ -4246,20 +3859,16 @@
         <f ca="1">VLOOKUP($A85,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G85" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A85,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H85" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G85" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>23.85</v>
       </c>
-      <c r="I85" s="4">
+      <c r="H85" s="4">
         <f t="shared" ca="1" si="3"/>
         <v>1523.85</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>279116</v>
       </c>
@@ -4277,22 +3886,18 @@
       </c>
       <c r="F86" s="1">
         <f ca="1">VLOOKUP($A86,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G86" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A86,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H86" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.8199999999999994</v>
-      </c>
-      <c r="I86" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G86" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.94</v>
+      </c>
+      <c r="H86" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1105.82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1101.94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>671964</v>
       </c>
@@ -4312,20 +3917,16 @@
         <f ca="1">VLOOKUP($A87,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G87" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A87,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H87" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G87" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>16.25</v>
       </c>
-      <c r="I87" s="4">
+      <c r="H87" s="4">
         <f t="shared" ca="1" si="3"/>
         <v>1016.25</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>308654</v>
       </c>
@@ -4343,22 +3944,18 @@
       </c>
       <c r="F88" s="1">
         <f ca="1">VLOOKUP($A88,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G88" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A88,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H88" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="I88" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G88" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.75</v>
+      </c>
+      <c r="H88" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1904.75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1923.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>734902</v>
       </c>
@@ -4376,22 +3973,18 @@
       </c>
       <c r="F89" s="1">
         <f ca="1">VLOOKUP($A89,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G89" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A89,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H89" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.0500000000000003</v>
-      </c>
-      <c r="I89" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G89" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.15</v>
+      </c>
+      <c r="H89" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1803.05</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1809.15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>822175</v>
       </c>
@@ -4409,22 +4002,18 @@
       </c>
       <c r="F90" s="1">
         <f ca="1">VLOOKUP($A90,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G90" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A90,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H90" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="I90" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G90" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H90" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1601.66</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1608.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>934018</v>
       </c>
@@ -4442,22 +4031,18 @@
       </c>
       <c r="F91" s="1">
         <f ca="1">VLOOKUP($A91,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G91" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A91,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H91" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.3899999999999988</v>
-      </c>
-      <c r="I91" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G91" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.65</v>
+      </c>
+      <c r="H91" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1109.3900000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1115.6500000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>723024</v>
       </c>
@@ -4475,22 +4060,18 @@
       </c>
       <c r="F92" s="1">
         <f ca="1">VLOOKUP($A92,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G92" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A92,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H92" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.52</v>
-      </c>
-      <c r="I92" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G92" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.84</v>
+      </c>
+      <c r="H92" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1111.52</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1103.8399999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>282113</v>
       </c>
@@ -4510,20 +4091,16 @@
         <f ca="1">VLOOKUP($A93,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G93" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A93,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H93" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G93" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>1.18</v>
       </c>
-      <c r="I93" s="4">
+      <c r="H93" s="4">
         <f t="shared" ca="1" si="3"/>
         <v>1201.18</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>902478</v>
       </c>
@@ -4543,20 +4120,16 @@
         <f ca="1">VLOOKUP($A94,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G94" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A94,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H94" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G94" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>3.16</v>
       </c>
-      <c r="I94" s="4">
+      <c r="H94" s="4">
         <f t="shared" ca="1" si="3"/>
         <v>1203.1600000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>163769</v>
       </c>
@@ -4574,22 +4147,18 @@
       </c>
       <c r="F95" s="1">
         <f ca="1">VLOOKUP($A95,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G95" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A95,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H95" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.85</v>
-      </c>
-      <c r="I95" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G95" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.25</v>
+      </c>
+      <c r="H95" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1600.85</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1604.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>714557</v>
       </c>
@@ -4609,20 +4178,16 @@
         <f ca="1">VLOOKUP($A96,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G96" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A96,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H96" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G96" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>11.19</v>
       </c>
-      <c r="I96" s="4">
+      <c r="H96" s="4">
         <f t="shared" ca="1" si="3"/>
         <v>1811.19</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>543729</v>
       </c>
@@ -4640,22 +4205,18 @@
       </c>
       <c r="F97" s="1">
         <f ca="1">VLOOKUP($A97,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G97" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A97,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H97" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.65</v>
-      </c>
-      <c r="I97" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G97" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H97" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1401.65</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1400.55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>589207</v>
       </c>
@@ -4675,20 +4236,16 @@
         <f>VLOOKUP($A98,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G98" s="1" t="str">
-        <f>IFERROR(VLOOKUP($A98,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>Need the commission</v>
-      </c>
-      <c r="H98" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="4">
-        <f t="shared" si="3"/>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G98" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H98" s="4" t="e">
+        <f t="shared" ref="H98:H129" si="5">D98+G98</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>880599</v>
       </c>
@@ -4708,20 +4265,16 @@
         <f ca="1">VLOOKUP($A99,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G99" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A99,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H99" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G99" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="I99" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H99" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>1008.55</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>831305</v>
       </c>
@@ -4741,20 +4294,16 @@
         <f ca="1">VLOOKUP($A100,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G100" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A100,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H100" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G100" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>5.76</v>
       </c>
-      <c r="I100" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H100" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>1105.76</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>377065</v>
       </c>
@@ -4774,28 +4323,24 @@
         <f ca="1">VLOOKUP($A101,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G101" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A101,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H101" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G101" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>13.77</v>
       </c>
-      <c r="I101" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H101" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>1413.77</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>861920</v>
       </c>
       <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" t="s">
         <v>204</v>
-      </c>
-      <c r="C102" t="s">
-        <v>205</v>
       </c>
       <c r="D102" s="5">
         <v>1400</v>
@@ -4807,28 +4352,24 @@
         <f ca="1">VLOOKUP($A102,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G102" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A102,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H102" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G102" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>2.38</v>
       </c>
-      <c r="I102" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H102" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>1402.38</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>312945</v>
       </c>
       <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" t="s">
         <v>206</v>
-      </c>
-      <c r="C103" t="s">
-        <v>207</v>
       </c>
       <c r="D103" s="5">
         <v>1500</v>
@@ -4838,30 +4379,26 @@
       </c>
       <c r="F103" s="1">
         <f ca="1">VLOOKUP($A103,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G103" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A103,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H103" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.25</v>
-      </c>
-      <c r="I103" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1508.25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G103" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H103" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1501.65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>682758</v>
       </c>
       <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" t="s">
         <v>208</v>
-      </c>
-      <c r="C104" t="s">
-        <v>209</v>
       </c>
       <c r="D104" s="5">
         <v>1900</v>
@@ -4873,28 +4410,24 @@
         <f ca="1">VLOOKUP($A104,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G104" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A104,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H104" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G104" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>12.059999999999999</v>
       </c>
-      <c r="I104" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H104" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>1912.06</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>790785</v>
       </c>
       <c r="B105" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" t="s">
         <v>210</v>
-      </c>
-      <c r="C105" t="s">
-        <v>211</v>
       </c>
       <c r="D105" s="5">
         <v>1700</v>
@@ -4904,30 +4437,26 @@
       </c>
       <c r="F105" s="1">
         <f ca="1">VLOOKUP($A105,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G105" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A105,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H105" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.75</v>
-      </c>
-      <c r="I105" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1713.75</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G105" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.75</v>
+      </c>
+      <c r="H105" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1702.75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>742112</v>
       </c>
       <c r="B106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" t="s">
         <v>212</v>
-      </c>
-      <c r="C106" t="s">
-        <v>213</v>
       </c>
       <c r="D106" s="5">
         <v>1400</v>
@@ -4937,30 +4466,26 @@
       </c>
       <c r="F106" s="1">
         <f ca="1">VLOOKUP($A106,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G106" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A106,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H106" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.95</v>
-      </c>
-      <c r="I106" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1401.95</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G106" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.25</v>
+      </c>
+      <c r="H106" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1403.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>797175</v>
       </c>
       <c r="B107" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" t="s">
         <v>214</v>
-      </c>
-      <c r="C107" t="s">
-        <v>215</v>
       </c>
       <c r="D107" s="5">
         <v>1200</v>
@@ -4972,28 +4497,24 @@
         <f ca="1">VLOOKUP($A107,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G107" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A107,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H107" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G107" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>3.8000000000000003</v>
       </c>
-      <c r="I107" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H107" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>1203.8</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>625120</v>
       </c>
       <c r="B108" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" t="s">
         <v>216</v>
-      </c>
-      <c r="C108" t="s">
-        <v>217</v>
       </c>
       <c r="D108" s="5">
         <v>1400</v>
@@ -5003,30 +4524,26 @@
       </c>
       <c r="F108" s="1">
         <f ca="1">VLOOKUP($A108,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G108" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A108,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H108" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I108" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G108" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H108" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>339859</v>
       </c>
       <c r="B109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" t="s">
         <v>218</v>
-      </c>
-      <c r="C109" t="s">
-        <v>219</v>
       </c>
       <c r="D109" s="5">
         <v>1600</v>
@@ -5036,30 +4553,26 @@
       </c>
       <c r="F109" s="1">
         <f ca="1">VLOOKUP($A109,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G109" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A109,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H109" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.350000000000001</v>
-      </c>
-      <c r="I109" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1615.35</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G109" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.2099999999999991</v>
+      </c>
+      <c r="H109" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1609.21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>830400</v>
       </c>
       <c r="B110" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" t="s">
         <v>220</v>
-      </c>
-      <c r="C110" t="s">
-        <v>221</v>
       </c>
       <c r="D110" s="5">
         <v>1000</v>
@@ -5069,30 +4582,26 @@
       </c>
       <c r="F110" s="1">
         <f ca="1">VLOOKUP($A110,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G110" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A110,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H110" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.4</v>
-      </c>
-      <c r="I110" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1011.4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G110" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="H110" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1003.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>724091</v>
       </c>
       <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" t="s">
         <v>222</v>
-      </c>
-      <c r="C111" t="s">
-        <v>223</v>
       </c>
       <c r="D111" s="5">
         <v>1500</v>
@@ -5104,28 +4613,24 @@
         <f ca="1">VLOOKUP($A111,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G111" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A111,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H111" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G111" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>12.69</v>
       </c>
-      <c r="I111" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H111" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>1512.69</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>490156</v>
       </c>
       <c r="B112" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" t="s">
         <v>224</v>
-      </c>
-      <c r="C112" t="s">
-        <v>225</v>
       </c>
       <c r="D112" s="5">
         <v>1200</v>
@@ -5135,30 +4640,26 @@
       </c>
       <c r="F112" s="1">
         <f ca="1">VLOOKUP($A112,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G112" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A112,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H112" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>20.950000000000003</v>
-      </c>
-      <c r="I112" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1220.95</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G112" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="H112" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1204.19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>948136</v>
       </c>
       <c r="B113" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113" t="s">
         <v>226</v>
-      </c>
-      <c r="C113" t="s">
-        <v>227</v>
       </c>
       <c r="D113" s="5">
         <v>1000</v>
@@ -5170,28 +4671,24 @@
         <f ca="1">VLOOKUP($A113,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G113" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A113,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H113" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G113" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>11.219999999999999</v>
       </c>
-      <c r="I113" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H113" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>1011.22</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>891016</v>
       </c>
       <c r="B114" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" t="s">
         <v>228</v>
-      </c>
-      <c r="C114" t="s">
-        <v>229</v>
       </c>
       <c r="D114" s="5">
         <v>1800</v>
@@ -5201,30 +4698,26 @@
       </c>
       <c r="F114" s="1">
         <f ca="1">VLOOKUP($A114,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G114" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A114,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H114" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.88</v>
-      </c>
-      <c r="I114" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1802.88</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G114" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.4</v>
+      </c>
+      <c r="H114" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1814.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>321211</v>
       </c>
       <c r="B115" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" t="s">
         <v>230</v>
-      </c>
-      <c r="C115" t="s">
-        <v>231</v>
       </c>
       <c r="D115" s="5">
         <v>1900</v>
@@ -5234,30 +4727,26 @@
       </c>
       <c r="F115" s="1">
         <f ca="1">VLOOKUP($A115,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G115" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A115,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H115" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="I115" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1904.69</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G115" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.07</v>
+      </c>
+      <c r="H115" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1914.07</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>604083</v>
       </c>
       <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" t="s">
         <v>232</v>
-      </c>
-      <c r="C116" t="s">
-        <v>233</v>
       </c>
       <c r="D116" s="5">
         <v>1700</v>
@@ -5267,30 +4756,26 @@
       </c>
       <c r="F116" s="1">
         <f ca="1">VLOOKUP($A116,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G116" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A116,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H116" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I116" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G116" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H116" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>847258</v>
       </c>
       <c r="B117" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" t="s">
         <v>234</v>
-      </c>
-      <c r="C117" t="s">
-        <v>235</v>
       </c>
       <c r="D117" s="5">
         <v>1100</v>
@@ -5300,30 +4785,26 @@
       </c>
       <c r="F117" s="1">
         <f ca="1">VLOOKUP($A117,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G117" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A117,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H117" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.61</v>
-      </c>
-      <c r="I117" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1108.6099999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G117" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.87</v>
+      </c>
+      <c r="H117" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1102.8699999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>531244</v>
       </c>
       <c r="B118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" t="s">
         <v>236</v>
-      </c>
-      <c r="C118" t="s">
-        <v>237</v>
       </c>
       <c r="D118" s="5">
         <v>1400</v>
@@ -5335,28 +4816,24 @@
         <f ca="1">VLOOKUP($A118,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G118" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A118,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H118" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G118" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>1.98</v>
       </c>
-      <c r="I118" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H118" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>1401.98</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>684328</v>
       </c>
       <c r="B119" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" t="s">
         <v>238</v>
-      </c>
-      <c r="C119" t="s">
-        <v>239</v>
       </c>
       <c r="D119" s="5">
         <v>1900</v>
@@ -5366,30 +4843,26 @@
       </c>
       <c r="F119" s="1">
         <f ca="1">VLOOKUP($A119,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G119" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A119,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H119" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.4899999999999998</v>
-      </c>
-      <c r="I119" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1902.49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G119" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="H119" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1900.83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>442042</v>
       </c>
       <c r="B120" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" t="s">
         <v>240</v>
-      </c>
-      <c r="C120" t="s">
-        <v>241</v>
       </c>
       <c r="D120" s="5">
         <v>1600</v>
@@ -5401,28 +4874,24 @@
         <f ca="1">VLOOKUP($A120,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G120" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A120,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H120" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G120" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>12.719999999999999</v>
       </c>
-      <c r="I120" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H120" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>1612.72</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>687786</v>
       </c>
       <c r="B121" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" t="s">
         <v>242</v>
-      </c>
-      <c r="C121" t="s">
-        <v>243</v>
       </c>
       <c r="D121" s="5">
         <v>1600</v>
@@ -5432,30 +4901,26 @@
       </c>
       <c r="F121" s="1">
         <f ca="1">VLOOKUP($A121,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G121" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A121,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H121" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.400000000000002</v>
-      </c>
-      <c r="I121" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1619.4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G121" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.88</v>
+      </c>
+      <c r="H121" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1603.88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>957184</v>
       </c>
       <c r="B122" t="s">
+        <v>243</v>
+      </c>
+      <c r="C122" t="s">
         <v>244</v>
-      </c>
-      <c r="C122" t="s">
-        <v>245</v>
       </c>
       <c r="D122" s="5">
         <v>1200</v>
@@ -5465,30 +4930,26 @@
       </c>
       <c r="F122" s="1">
         <f ca="1">VLOOKUP($A122,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G122" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A122,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H122" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.8699999999999997</v>
-      </c>
-      <c r="I122" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1203.8699999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G122" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.45</v>
+      </c>
+      <c r="H122" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1206.45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>742889</v>
       </c>
       <c r="B123" t="s">
+        <v>245</v>
+      </c>
+      <c r="C123" t="s">
         <v>246</v>
-      </c>
-      <c r="C123" t="s">
-        <v>247</v>
       </c>
       <c r="D123" s="5">
         <v>1000</v>
@@ -5498,30 +4959,26 @@
       </c>
       <c r="F123" s="1">
         <f ca="1">VLOOKUP($A123,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G123" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A123,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H123" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="I123" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1004.8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G123" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.96</v>
+      </c>
+      <c r="H123" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1000.96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>615902</v>
       </c>
       <c r="B124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" t="s">
         <v>248</v>
-      </c>
-      <c r="C124" t="s">
-        <v>249</v>
       </c>
       <c r="D124" s="5">
         <v>1200</v>
@@ -5531,30 +4988,26 @@
       </c>
       <c r="F124" s="1">
         <f ca="1">VLOOKUP($A124,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G124" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A124,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H124" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.12</v>
-      </c>
-      <c r="I124" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1202.1199999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G124" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>10.600000000000001</v>
+      </c>
+      <c r="H124" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1210.5999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>184588</v>
       </c>
       <c r="B125" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" t="s">
         <v>250</v>
-      </c>
-      <c r="C125" t="s">
-        <v>251</v>
       </c>
       <c r="D125" s="5">
         <v>1900</v>
@@ -5564,30 +5017,26 @@
       </c>
       <c r="F125" s="1">
         <f ca="1">VLOOKUP($A125,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G125" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A125,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H125" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.74</v>
-      </c>
-      <c r="I125" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1904.74</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G125" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.700000000000003</v>
+      </c>
+      <c r="H125" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1923.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>553206</v>
       </c>
       <c r="B126" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" t="s">
         <v>252</v>
-      </c>
-      <c r="C126" t="s">
-        <v>253</v>
       </c>
       <c r="D126" s="5">
         <v>1500</v>
@@ -5597,30 +5046,26 @@
       </c>
       <c r="F126" s="1">
         <f ca="1">VLOOKUP($A126,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G126" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A126,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H126" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.78</v>
-      </c>
-      <c r="I126" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1512.78</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G126" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.3</v>
+      </c>
+      <c r="H126" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1521.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>969796</v>
       </c>
       <c r="B127" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" t="s">
         <v>254</v>
-      </c>
-      <c r="C127" t="s">
-        <v>255</v>
       </c>
       <c r="D127" s="5">
         <v>1500</v>
@@ -5632,28 +5077,24 @@
         <f ca="1">VLOOKUP($A127,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G127" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A127,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H127" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G127" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>19.75</v>
       </c>
-      <c r="I127" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H127" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>1519.75</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>962805</v>
       </c>
       <c r="B128" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" t="s">
         <v>256</v>
-      </c>
-      <c r="C128" t="s">
-        <v>257</v>
       </c>
       <c r="D128" s="5">
         <v>1200</v>
@@ -5665,28 +5106,24 @@
         <f ca="1">VLOOKUP($A128,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G128" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A128,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H128" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G128" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>18.7</v>
       </c>
-      <c r="I128" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H128" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>1218.7</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>955146</v>
       </c>
       <c r="B129" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" t="s">
         <v>258</v>
-      </c>
-      <c r="C129" t="s">
-        <v>259</v>
       </c>
       <c r="D129" s="5">
         <v>1000</v>
@@ -5696,30 +5133,26 @@
       </c>
       <c r="F129" s="1">
         <f ca="1">VLOOKUP($A129,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G129" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A129,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H129" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.02</v>
-      </c>
-      <c r="I129" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1007.02</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G129" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.34</v>
+      </c>
+      <c r="H129" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1002.34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>855470</v>
       </c>
       <c r="B130" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" t="s">
         <v>260</v>
-      </c>
-      <c r="C130" t="s">
-        <v>261</v>
       </c>
       <c r="D130" s="5">
         <v>1000</v>
@@ -5731,28 +5164,24 @@
         <f ca="1">VLOOKUP($A130,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G130" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A130,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H130" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G130" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>4.42</v>
       </c>
-      <c r="I130" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H130" s="4">
+        <f t="shared" ref="H130:H161" ca="1" si="6">D130+G130</f>
         <v>1004.42</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>177594</v>
       </c>
       <c r="B131" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" t="s">
         <v>262</v>
-      </c>
-      <c r="C131" t="s">
-        <v>263</v>
       </c>
       <c r="D131" s="5">
         <v>1800</v>
@@ -5762,30 +5191,26 @@
       </c>
       <c r="F131" s="1">
         <f ca="1">VLOOKUP($A131,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G131" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A131,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H131" s="7">
-        <f t="shared" ref="H131:H151" ca="1" si="4">IFERROR(E131*G131,0)</f>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="I131" s="4">
-        <f t="shared" ref="I131:I151" ca="1" si="5">D131+H131</f>
-        <v>1807.2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G131" s="7">
+        <f t="shared" ref="G131:G151" ca="1" si="7">E131*F131</f>
+        <v>12</v>
+      </c>
+      <c r="H131" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>177290</v>
       </c>
       <c r="B132" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" t="s">
         <v>264</v>
-      </c>
-      <c r="C132" t="s">
-        <v>265</v>
       </c>
       <c r="D132" s="5">
         <v>1900</v>
@@ -5795,30 +5220,26 @@
       </c>
       <c r="F132" s="1">
         <f ca="1">VLOOKUP($A132,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G132" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A132,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H132" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.71</v>
-      </c>
-      <c r="I132" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1902.71</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G132" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>13.55</v>
+      </c>
+      <c r="H132" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1913.55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>813355</v>
       </c>
       <c r="B133" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" t="s">
         <v>266</v>
-      </c>
-      <c r="C133" t="s">
-        <v>267</v>
       </c>
       <c r="D133" s="5">
         <v>1200</v>
@@ -5830,28 +5251,24 @@
         <f ca="1">VLOOKUP($A133,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G133" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A133,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H133" s="7">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G133" s="7">
+        <f t="shared" ca="1" si="7"/>
         <v>4.07</v>
       </c>
-      <c r="I133" s="4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="H133" s="4">
+        <f t="shared" ca="1" si="6"/>
         <v>1204.07</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>122567</v>
       </c>
       <c r="B134" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s">
         <v>268</v>
-      </c>
-      <c r="C134" t="s">
-        <v>269</v>
       </c>
       <c r="D134" s="5">
         <v>1700</v>
@@ -5861,30 +5278,26 @@
       </c>
       <c r="F134" s="1">
         <f ca="1">VLOOKUP($A134,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G134" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A134,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H134" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.68</v>
-      </c>
-      <c r="I134" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1707.68</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G134" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>2.56</v>
+      </c>
+      <c r="H134" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1702.56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>963685</v>
       </c>
       <c r="B135" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" t="s">
         <v>270</v>
-      </c>
-      <c r="C135" t="s">
-        <v>271</v>
       </c>
       <c r="D135" s="5">
         <v>1700</v>
@@ -5894,30 +5307,26 @@
       </c>
       <c r="F135" s="1">
         <f ca="1">VLOOKUP($A135,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G135" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A135,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H135" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>11.28</v>
-      </c>
-      <c r="I135" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1711.28</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G135" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.7600000000000002</v>
+      </c>
+      <c r="H135" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1703.76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>345191</v>
       </c>
       <c r="B136" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" t="s">
         <v>272</v>
-      </c>
-      <c r="C136" t="s">
-        <v>273</v>
       </c>
       <c r="D136" s="5">
         <v>1900</v>
@@ -5927,30 +5336,26 @@
       </c>
       <c r="F136" s="1">
         <f ca="1">VLOOKUP($A136,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G136" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A136,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H136" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>14.549999999999999</v>
-      </c>
-      <c r="I136" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1914.55</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G136" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.8500000000000005</v>
+      </c>
+      <c r="H136" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1904.85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>527962</v>
       </c>
       <c r="B137" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" t="s">
         <v>274</v>
-      </c>
-      <c r="C137" t="s">
-        <v>275</v>
       </c>
       <c r="D137" s="5">
         <v>1300</v>
@@ -5960,30 +5365,26 @@
       </c>
       <c r="F137" s="1">
         <f ca="1">VLOOKUP($A137,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G137" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A137,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H137" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.42</v>
-      </c>
-      <c r="I137" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1304.42</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G137" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>22.1</v>
+      </c>
+      <c r="H137" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1322.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>464033</v>
       </c>
       <c r="B138" t="s">
+        <v>275</v>
+      </c>
+      <c r="C138" t="s">
         <v>276</v>
-      </c>
-      <c r="C138" t="s">
-        <v>277</v>
       </c>
       <c r="D138" s="5">
         <v>1100</v>
@@ -5993,30 +5394,26 @@
       </c>
       <c r="F138" s="1">
         <f ca="1">VLOOKUP($A138,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G138" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A138,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H138" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>11.49</v>
-      </c>
-      <c r="I138" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1111.49</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G138" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.83</v>
+      </c>
+      <c r="H138" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1103.83</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>419074</v>
       </c>
       <c r="B139" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" t="s">
         <v>278</v>
-      </c>
-      <c r="C139" t="s">
-        <v>279</v>
       </c>
       <c r="D139" s="5">
         <v>1700</v>
@@ -6028,28 +5425,24 @@
         <f ca="1">VLOOKUP($A139,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G139" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A139,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H139" s="7">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G139" s="7">
+        <f t="shared" ca="1" si="7"/>
         <v>4.41</v>
       </c>
-      <c r="I139" s="4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="H139" s="4">
+        <f t="shared" ca="1" si="6"/>
         <v>1704.41</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>277237</v>
       </c>
       <c r="B140" t="s">
+        <v>279</v>
+      </c>
+      <c r="C140" t="s">
         <v>280</v>
-      </c>
-      <c r="C140" t="s">
-        <v>281</v>
       </c>
       <c r="D140" s="5">
         <v>1600</v>
@@ -6061,28 +5454,24 @@
         <f ca="1">VLOOKUP($A140,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G140" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A140,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H140" s="7">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G140" s="7">
+        <f t="shared" ca="1" si="7"/>
         <v>21.150000000000002</v>
       </c>
-      <c r="I140" s="4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="H140" s="4">
+        <f t="shared" ca="1" si="6"/>
         <v>1621.15</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>690697</v>
       </c>
       <c r="B141" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" t="s">
         <v>282</v>
-      </c>
-      <c r="C141" t="s">
-        <v>283</v>
       </c>
       <c r="D141" s="5">
         <v>1100</v>
@@ -6094,20 +5483,16 @@
         <f ca="1">VLOOKUP($A141,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G141" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A141,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H141" s="7">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G141" s="7">
+        <f t="shared" ca="1" si="7"/>
         <v>15.75</v>
       </c>
-      <c r="I141" s="4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="H141" s="4">
+        <f t="shared" ca="1" si="6"/>
         <v>1115.75</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>366769</v>
       </c>
@@ -6115,7 +5500,7 @@
         <v>20</v>
       </c>
       <c r="C142" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D142" s="5">
         <v>1300</v>
@@ -6125,30 +5510,26 @@
       </c>
       <c r="F142" s="1">
         <f ca="1">VLOOKUP($A142,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G142" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A142,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H142" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.25</v>
-      </c>
-      <c r="I142" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1302.25</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G142" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>6.75</v>
+      </c>
+      <c r="H142" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1306.75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>511896</v>
       </c>
       <c r="B143" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" t="s">
         <v>285</v>
-      </c>
-      <c r="C143" t="s">
-        <v>286</v>
       </c>
       <c r="D143" s="5">
         <v>1200</v>
@@ -6158,22 +5539,18 @@
       </c>
       <c r="F143" s="1">
         <f ca="1">VLOOKUP($A143,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G143" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A143,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H143" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.94</v>
-      </c>
-      <c r="I143" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1202.94</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G143" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H143" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1204.9000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>771160</v>
       </c>
@@ -6181,7 +5558,7 @@
         <v>123</v>
       </c>
       <c r="C144" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D144" s="5">
         <v>1000</v>
@@ -6191,30 +5568,26 @@
       </c>
       <c r="F144" s="1">
         <f ca="1">VLOOKUP($A144,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G144" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A144,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H144" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>13.379999999999999</v>
-      </c>
-      <c r="I144" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1013.38</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G144" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.46</v>
+      </c>
+      <c r="H144" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1004.46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>732945</v>
       </c>
       <c r="B145" t="s">
+        <v>287</v>
+      </c>
+      <c r="C145" t="s">
         <v>288</v>
-      </c>
-      <c r="C145" t="s">
-        <v>289</v>
       </c>
       <c r="D145" s="5">
         <v>1800</v>
@@ -6224,30 +5597,26 @@
       </c>
       <c r="F145" s="1">
         <f ca="1">VLOOKUP($A145,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G145" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A145,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H145" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>16.150000000000002</v>
-      </c>
-      <c r="I145" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1816.15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G145" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.23</v>
+      </c>
+      <c r="H145" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1803.23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>794716</v>
       </c>
       <c r="B146" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146" t="s">
         <v>290</v>
-      </c>
-      <c r="C146" t="s">
-        <v>291</v>
       </c>
       <c r="D146" s="5">
         <v>1200</v>
@@ -6259,28 +5628,24 @@
         <f ca="1">VLOOKUP($A146,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G146" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A146,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H146" s="7">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G146" s="7">
+        <f t="shared" ca="1" si="7"/>
         <v>9.18</v>
       </c>
-      <c r="I146" s="4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="H146" s="4">
+        <f t="shared" ca="1" si="6"/>
         <v>1209.18</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>688167</v>
       </c>
       <c r="B147" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" t="s">
         <v>292</v>
-      </c>
-      <c r="C147" t="s">
-        <v>293</v>
       </c>
       <c r="D147" s="5">
         <v>1800</v>
@@ -6290,30 +5655,26 @@
       </c>
       <c r="F147" s="1">
         <f ca="1">VLOOKUP($A147,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G147" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A147,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.01</v>
-      </c>
-      <c r="H147" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="I147" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1800.95</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G147" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>2.85</v>
+      </c>
+      <c r="H147" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1802.85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>730566</v>
       </c>
       <c r="B148" t="s">
+        <v>293</v>
+      </c>
+      <c r="C148" t="s">
         <v>294</v>
-      </c>
-      <c r="C148" t="s">
-        <v>295</v>
       </c>
       <c r="D148" s="5">
         <v>1800</v>
@@ -6323,30 +5684,26 @@
       </c>
       <c r="F148" s="1">
         <f ca="1">VLOOKUP($A148,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G148" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A148,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H148" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>21.650000000000002</v>
-      </c>
-      <c r="I148" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1821.65</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G148" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.33</v>
+      </c>
+      <c r="H148" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1804.33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>620580</v>
       </c>
       <c r="B149" t="s">
+        <v>295</v>
+      </c>
+      <c r="C149" t="s">
         <v>296</v>
-      </c>
-      <c r="C149" t="s">
-        <v>297</v>
       </c>
       <c r="D149" s="5">
         <v>1200</v>
@@ -6356,30 +5713,26 @@
       </c>
       <c r="F149" s="1">
         <f ca="1">VLOOKUP($A149,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G149" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A149,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H149" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.2299999999999995</v>
-      </c>
-      <c r="I149" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1207.23</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G149" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>2.41</v>
+      </c>
+      <c r="H149" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1202.4100000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>926786</v>
       </c>
       <c r="B150" t="s">
+        <v>297</v>
+      </c>
+      <c r="C150" t="s">
         <v>298</v>
-      </c>
-      <c r="C150" t="s">
-        <v>299</v>
       </c>
       <c r="D150" s="5">
         <v>1100</v>
@@ -6389,30 +5742,26 @@
       </c>
       <c r="F150" s="1">
         <f ca="1">VLOOKUP($A150,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
-        <v>0.03</v>
-      </c>
-      <c r="G150" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A150,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.03</v>
-      </c>
-      <c r="H150" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="I150" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1107.2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G150" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="H150" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>644474</v>
       </c>
       <c r="B151" t="s">
+        <v>299</v>
+      </c>
+      <c r="C151" t="s">
         <v>300</v>
-      </c>
-      <c r="C151" t="s">
-        <v>301</v>
       </c>
       <c r="D151" s="5">
         <v>1600</v>
@@ -6424,52 +5773,48 @@
         <f ca="1">VLOOKUP($A151,'Commission Rates'!$A$2:$B$149,2,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="G151" s="1">
-        <f ca="1">IFERROR(VLOOKUP($A151,'Commission Rates'!$A$2:$B$149,2,FALSE),"Need the commission")</f>
-        <v>0.05</v>
-      </c>
-      <c r="H151" s="7">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G151" s="7">
+        <f t="shared" ca="1" si="7"/>
         <v>16.100000000000001</v>
       </c>
-      <c r="I151" s="4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="H151" s="4">
+        <f t="shared" ca="1" si="6"/>
         <v>1616.1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
     </row>
@@ -6518,7 +5863,6 @@
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6526,7 +5870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
@@ -6550,7 +5894,7 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">CHOOSE(RANDBETWEEN(1,3),0.01,0.03,0.05)</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6559,7 +5903,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">CHOOSE(RANDBETWEEN(1,3),0.01,0.03,0.05)</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6586,7 +5930,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6595,7 +5939,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6604,7 +5948,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6613,7 +5957,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6622,7 +5966,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6631,7 +5975,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6640,7 +5984,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6649,7 +5993,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6658,7 +6002,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6667,7 +6011,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6676,7 +6020,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -6685,7 +6029,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -6703,7 +6047,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -6721,7 +6065,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -6730,7 +6074,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -6757,7 +6101,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6766,7 +6110,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -6775,7 +6119,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6784,7 +6128,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6802,7 +6146,7 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -6811,7 +6155,7 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -6820,7 +6164,7 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -6829,7 +6173,7 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -6838,7 +6182,7 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -6847,7 +6191,7 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -6856,7 +6200,7 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -6865,7 +6209,7 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6874,7 +6218,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -6892,7 +6236,7 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6937,7 +6281,7 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -6982,7 +6326,7 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -7000,7 +6344,7 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -7018,7 +6362,7 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -7027,7 +6371,7 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -7036,7 +6380,7 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -7054,7 +6398,7 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -7063,7 +6407,7 @@
       </c>
       <c r="B59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -7072,7 +6416,7 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -7081,7 +6425,7 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -7090,7 +6434,7 @@
       </c>
       <c r="B62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -7117,7 +6461,7 @@
       </c>
       <c r="B65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -7126,7 +6470,7 @@
       </c>
       <c r="B66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -7135,7 +6479,7 @@
       </c>
       <c r="B67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -7162,7 +6506,7 @@
       </c>
       <c r="B70" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -7180,7 +6524,7 @@
       </c>
       <c r="B72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -7198,7 +6542,7 @@
       </c>
       <c r="B74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -7207,7 +6551,7 @@
       </c>
       <c r="B75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -7216,7 +6560,7 @@
       </c>
       <c r="B76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -7225,7 +6569,7 @@
       </c>
       <c r="B77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -7243,7 +6587,7 @@
       </c>
       <c r="B79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -7297,7 +6641,7 @@
       </c>
       <c r="B85" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -7306,7 +6650,7 @@
       </c>
       <c r="B86" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -7315,7 +6659,7 @@
       </c>
       <c r="B87" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -7351,7 +6695,7 @@
       </c>
       <c r="B91" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -7369,7 +6713,7 @@
       </c>
       <c r="B93" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -7378,7 +6722,7 @@
       </c>
       <c r="B94" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -7387,7 +6731,7 @@
       </c>
       <c r="B95" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -7396,7 +6740,7 @@
       </c>
       <c r="B96" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -7405,7 +6749,7 @@
       </c>
       <c r="B97" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -7414,7 +6758,7 @@
       </c>
       <c r="B98" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -7423,7 +6767,7 @@
       </c>
       <c r="B99" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -7441,7 +6785,7 @@
       </c>
       <c r="B101" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -7459,7 +6803,7 @@
       </c>
       <c r="B103" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -7468,7 +6812,7 @@
       </c>
       <c r="B104" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -7477,7 +6821,7 @@
       </c>
       <c r="B105" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -7504,7 +6848,7 @@
       </c>
       <c r="B108" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -7522,7 +6866,7 @@
       </c>
       <c r="B110" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -7540,7 +6884,7 @@
       </c>
       <c r="B112" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -7549,7 +6893,7 @@
       </c>
       <c r="B113" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -7567,7 +6911,7 @@
       </c>
       <c r="B115" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -7576,7 +6920,7 @@
       </c>
       <c r="B116" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -7603,7 +6947,7 @@
       </c>
       <c r="B119" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -7630,7 +6974,7 @@
       </c>
       <c r="B122" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -7657,7 +7001,7 @@
       </c>
       <c r="B125" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -7666,7 +7010,7 @@
       </c>
       <c r="B126" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -7675,7 +7019,7 @@
       </c>
       <c r="B127" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -7693,7 +7037,7 @@
       </c>
       <c r="B129" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -7702,7 +7046,7 @@
       </c>
       <c r="B130" s="1">
         <f t="shared" ref="B130:B149" ca="1" si="2">CHOOSE(RANDBETWEEN(1,3),0.01,0.03,0.05)</f>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -7711,7 +7055,7 @@
       </c>
       <c r="B131" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -7729,7 +7073,7 @@
       </c>
       <c r="B133" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -7738,7 +7082,7 @@
       </c>
       <c r="B134" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -7747,7 +7091,7 @@
       </c>
       <c r="B135" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -7756,7 +7100,7 @@
       </c>
       <c r="B136" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -7774,7 +7118,7 @@
       </c>
       <c r="B138" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -7783,7 +7127,7 @@
       </c>
       <c r="B139" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -7792,7 +7136,7 @@
       </c>
       <c r="B140" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -7801,7 +7145,7 @@
       </c>
       <c r="B141" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -7828,7 +7172,7 @@
       </c>
       <c r="B144" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -7837,7 +7181,7 @@
       </c>
       <c r="B145" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -7864,7 +7208,7 @@
       </c>
       <c r="B148" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -7873,7 +7217,7 @@
       </c>
       <c r="B149" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -7902,11 +7246,11 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" t="b">
-        <f ca="1">Sales!M5=SUM(Sales!H2:H151)*0.02</f>
-        <v>0</v>
+        <v>312</v>
+      </c>
+      <c r="B1" t="e">
+        <f ca="1">Sales!L5=SUM(Sales!G2:G151)*0.02</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
